--- a/biology/Botanique/Salix_bikouensis/Salix_bikouensis.xlsx
+++ b/biology/Botanique/Salix_bikouensis/Salix_bikouensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix bikouensis est un arbuste ou un petit arbre de la famille des saules (Salix), avec des branches brunes ou rouge sombre (bordeaux) et des feuilles mesurant de 3,5 à 6 centimètres de long. L'espèce est originaire de Chine.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix bikouensis est un arbuste ou un arbre qui peut atteindre 5 mètres de haut. Ses branches sont velues quand elles sont jeunes mais deviennent glabres avec l'âge. Les feuilles sont portées par un pétiole de 2 à 3 mm de long. De forme lancéolée, mesurant de 3,5 à 6 cm de long pour 1,4 à 1,6 cm de large, elles sont terminées par une pointe parfois petite. Leur partie supérieure est verte, le dessous étant pâle, les deux faces sont duveteuses[1].
-Les inflorescences sont de petits chatons de 2 à 2,2 cm de long et 4 à 5 mm de large. Leur pétiole mesure 5 mm de long. Les fleurs mâles portent deux nectaires. Les fleurs femelles font de 1,6 à 2 cm de long. La floraison a lieu avant ou en même temps que l'arrivée des feuilles, d'avril à mai[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix bikouensis est un arbuste ou un arbre qui peut atteindre 5 mètres de haut. Ses branches sont velues quand elles sont jeunes mais deviennent glabres avec l'âge. Les feuilles sont portées par un pétiole de 2 à 3 mm de long. De forme lancéolée, mesurant de 3,5 à 6 cm de long pour 1,4 à 1,6 cm de large, elles sont terminées par une pointe parfois petite. Leur partie supérieure est verte, le dessous étant pâle, les deux faces sont duveteuses.
+Les inflorescences sont de petits chatons de 2 à 2,2 cm de long et 4 à 5 mm de large. Leur pétiole mesure 5 mm de long. Les fleurs mâles portent deux nectaires. Les fleurs femelles font de 1,6 à 2 cm de long. La floraison a lieu avant ou en même temps que l'arrivée des feuilles, d'avril à mai,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'habitat d'origine se trouve dans les provinces chinoises de Gansu, Hubei et Shaanxi[2], dans des zones humides, à une altitude allant de 700 à 900 mètres[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habitat d'origine se trouve dans les provinces chinoises de Gansu, Hubei et Shaanxi, dans des zones humides, à une altitude allant de 700 à 900 mètres.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Salix bikouensis var. bikouensis, avec des ovaires velus. Dans les provinces de Gansu, Hubei et Shaanxi[1].
-Salix bikouensis var. villosa, Y. L. Chou, avec de fines branches pendantes et des ovaires partiellement velus, située dans le Hubei[1],[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Salix bikouensis var. bikouensis, avec des ovaires velus. Dans les provinces de Gansu, Hubei et Shaanxi.
+Salix bikouensis var. villosa, Y. L. Chou, avec de fines branches pendantes et des ovaires partiellement velus, située dans le Hubei,.</t>
         </is>
       </c>
     </row>
